--- a/backend/schedule.xlsx
+++ b/backend/schedule.xlsx
@@ -386,8 +386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J236" sqref="J236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,47 +420,47 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>45658</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <v>45659</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>45660</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>45661</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>45662</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>45663</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>45664</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <v>45665</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -480,7 +480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -560,7 +560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -580,7 +580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -600,7 +600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -640,7 +640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -700,7 +700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -720,7 +720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -740,7 +740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>4</v>
       </c>
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -780,7 +780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>7</v>
       </c>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -860,7 +860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -900,7 +900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -920,7 +920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>7</v>
       </c>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -980,7 +980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>9</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>4</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>6</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>7</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>4</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>7</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>9</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -1320,7 +1320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>6</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>9</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>4</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>6</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>9</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>4</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>6</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>9</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>4</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>6</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>6</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>8</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>6</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>9</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>4</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>6</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>7</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>8</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>9</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>4</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>6</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>7</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>8</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>9</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>4</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>6</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>7</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>9</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>4</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>6</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>7</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>9</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>4</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>6</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>7</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>8</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>9</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>4</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>6</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>7</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>8</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>9</v>
       </c>
@@ -2960,7 +2960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>4</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>6</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>7</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>8</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>9</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>4</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>6</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>7</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>8</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>9</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>10</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>4</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>6</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>7</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>8</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>9</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>4</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>6</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>7</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>8</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>9</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>6</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>7</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>8</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>9</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>4</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>5</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>7</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>8</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>9</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>10</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>4</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>6</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>7</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>9</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>10</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>4</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>6</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>7</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>8</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>10</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>4</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>6</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>7</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>8</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>9</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>4</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>6</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>7</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>8</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>9</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>10</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>4</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>5</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>6</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>7</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>8</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>9</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>10</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>4</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>6</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>7</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>8</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>9</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>10</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>4</v>
       </c>

--- a/backend/schedule.xlsx
+++ b/backend/schedule.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:F369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J236" sqref="J236"/>
+      <selection activeCell="L233" sqref="L233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/backend/schedule.xlsx
+++ b/backend/schedule.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:F369"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L233" sqref="L233"/>
+      <selection activeCell="J238" sqref="J238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
